--- a/Core Java Interview questions (2).xlsx
+++ b/Core Java Interview questions (2).xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
   <si>
     <t>Questions</t>
   </si>
@@ -221,6 +221,9 @@
     <t>40. What is the difference between an interface and an abstract class?</t>
   </si>
   <si>
+    <t>Explain RequestBody in springboot application.</t>
+  </si>
+  <si>
     <t>Explain the concept of auto-configuration in Spring Boot.</t>
   </si>
   <si>
@@ -270,6 +273,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>Differences between</t>
     </r>
     <r>
@@ -1779,10 +1788,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:A46"/>
+  <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1790,144 +1799,149 @@
     <col min="1" max="1" width="156.909090909091" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="2" ht="17" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" ht="17" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" ht="17" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" ht="17" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" ht="17" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" ht="17" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" ht="17" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" ht="17" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" ht="17" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" ht="17" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" ht="17" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" ht="17" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" ht="17" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" ht="17" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" ht="17" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" ht="17" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" ht="17" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" ht="17" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" ht="17" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" ht="17" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" ht="17" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" ht="17" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" ht="17" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" ht="17" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" ht="17" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" ht="17" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" ht="17" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" ht="17" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Core Java Interview questions (2).xlsx
+++ b/Core Java Interview questions (2).xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" activeTab="3"/>
+    <workbookView windowWidth="18350" windowHeight="6800" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Core Java - Code decode" sheetId="1" r:id="rId1"/>
     <sheet name="Video 2" sheetId="2" r:id="rId2"/>
     <sheet name="JDK-JRE-JVM" sheetId="3" r:id="rId3"/>
     <sheet name="Top springboot questions" sheetId="4" r:id="rId4"/>
+    <sheet name="Professor Notes" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1089,6 +1090,95 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="368300"/>
+          <a:ext cx="9398000" cy="6858000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7550150"/>
+          <a:ext cx="10890250" cy="6858000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1351,7 +1441,7 @@
   <sheetPr/>
   <dimension ref="A2:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1790,7 +1880,7 @@
   <sheetPr/>
   <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1951,4 +2041,21 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Core Java Interview questions (2).xlsx
+++ b/Core Java Interview questions (2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6800" activeTab="4"/>
+    <workbookView windowWidth="18350" windowHeight="6800" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Core Java - Code decode" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="JDK-JRE-JVM" sheetId="3" r:id="rId3"/>
     <sheet name="Top springboot questions" sheetId="4" r:id="rId4"/>
     <sheet name="Professor Notes" sheetId="5" r:id="rId5"/>
+    <sheet name="Springboot-questions" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="115">
   <si>
     <t>Questions</t>
   </si>
@@ -387,6 +388,268 @@
   </si>
   <si>
     <t>11. You need to build out an application that will integrate with multiple third-party services, each with its own unique API. It is possible more services could be added later.</t>
+  </si>
+  <si>
+    <t>Spring Boot annotations that every Java developer should know:</t>
+  </si>
+  <si>
+    <t>@SpringBootApplication</t>
+  </si>
+  <si>
+    <t>@RestController</t>
+  </si>
+  <si>
+    <t>@RequestMapping</t>
+  </si>
+  <si>
+    <r>
+      <t>@GetMapping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@PostMapping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@PutMapping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@DeleteMapping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@PatchMapping</t>
+    </r>
+  </si>
+  <si>
+    <t>@Autowired</t>
+  </si>
+  <si>
+    <r>
+      <t>@Component</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@Service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@Repository</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@Controller</t>
+    </r>
+  </si>
+  <si>
+    <t>@Configuration</t>
+  </si>
+  <si>
+    <t>@Bean</t>
+  </si>
+  <si>
+    <t>@Entity</t>
+  </si>
+  <si>
+    <t>@Table</t>
+  </si>
+  <si>
+    <t>@Id</t>
+  </si>
+  <si>
+    <t>@GeneratedValue</t>
+  </si>
+  <si>
+    <t>@EnableAutoConfiguration</t>
+  </si>
+  <si>
+    <t>@ComponentScan</t>
+  </si>
+  <si>
+    <t>@ConditionalOnProperty</t>
+  </si>
+  <si>
+    <t>@Value</t>
+  </si>
+  <si>
+    <t>@Profile</t>
+  </si>
+  <si>
+    <t>@PathVariable</t>
+  </si>
+  <si>
+    <t>@RequestParam</t>
+  </si>
+  <si>
+    <t>@RequestBody</t>
+  </si>
+  <si>
+    <t>@ResponseBody</t>
+  </si>
+  <si>
+    <t>@ExceptionHandler</t>
   </si>
 </sst>
 </file>
@@ -408,6 +671,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
@@ -419,13 +695,6 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -570,12 +839,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -895,142 +1158,143 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1566,10 +1830,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1582,7 +1846,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1598,7 +1862,7 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1606,7 +1870,7 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1614,7 +1878,7 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1622,7 +1886,7 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1670,202 +1934,202 @@
       </c>
     </row>
     <row r="4" ht="17" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" ht="17" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" ht="17" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" ht="17" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" ht="17" spans="1:1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" ht="17" spans="1:1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" ht="17" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" ht="17" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" ht="17" spans="1:1">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" ht="17" spans="1:1">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" ht="17" spans="1:1">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" ht="17" spans="1:1">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" ht="17" spans="1:1">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" ht="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" ht="17" spans="1:1">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" ht="17" spans="1:1">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" ht="17" spans="1:1">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" ht="17" spans="1:1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" ht="17" spans="1:1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" ht="17" spans="1:1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" ht="17" spans="1:1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" ht="17" spans="1:1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" ht="17" spans="1:1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" ht="17" spans="1:1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="28" ht="17" spans="1:1">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" ht="17" spans="1:1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="30" ht="17" spans="1:1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" ht="17" spans="1:1">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" ht="17" spans="1:1">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" ht="17" spans="1:1">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="34" ht="17" spans="1:1">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" ht="17" spans="1:1">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="36" ht="17" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="37" ht="17" spans="1:1">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="38" ht="17" spans="1:1">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="39" ht="17" spans="1:1">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="40" ht="17" spans="1:1">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="41" ht="17" spans="1:1">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="42" ht="17" spans="1:1">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="43" ht="17" spans="1:1">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1895,142 +2159,142 @@
       </c>
     </row>
     <row r="2" ht="17" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" ht="17" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" ht="17" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" ht="17" spans="1:1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" ht="17" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" ht="17" spans="1:1">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" ht="17" spans="1:1">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16" ht="17" spans="1:1">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" ht="17" spans="1:1">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20" ht="17" spans="1:1">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22" ht="17" spans="1:1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="24" ht="17" spans="1:1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="26" ht="17" spans="1:1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="28" ht="17" spans="1:1">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="30" ht="17" spans="1:1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="32" ht="17" spans="1:1">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="34" ht="17" spans="1:1">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="36" ht="17" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="37" ht="17" spans="1:1">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="38" ht="17" spans="1:1">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="39" ht="17" spans="1:1">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="40" ht="17" spans="1:1">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="41" ht="17" spans="1:1">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="42" ht="17" spans="1:1">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="43" ht="17" spans="1:1">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="44" ht="17" spans="1:1">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="45" ht="17" spans="1:1">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="46" ht="17" spans="1:1">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2048,7 +2312,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -2058,4 +2322,161 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:B44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="79.3636363636364" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" ht="17" spans="2:2">
+      <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="2:2">
+      <c r="B4" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" ht="17" spans="2:2">
+      <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" ht="17" spans="2:2">
+      <c r="B8" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" ht="17" spans="2:2">
+      <c r="B10" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" ht="17" spans="2:2">
+      <c r="B12" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" ht="17" spans="2:2">
+      <c r="B14" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" ht="17" spans="2:2">
+      <c r="B16" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" ht="17" spans="2:2">
+      <c r="B18" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" ht="17" spans="2:2">
+      <c r="B20" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" ht="17" spans="2:2">
+      <c r="B22" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" ht="17" spans="2:2">
+      <c r="B24" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" ht="17" spans="2:2">
+      <c r="B26" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" ht="17" spans="2:2">
+      <c r="B28" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" ht="17" spans="2:2">
+      <c r="B30" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" ht="17" spans="2:2">
+      <c r="B32" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" ht="17" spans="2:2">
+      <c r="B34" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" ht="17" spans="2:2">
+      <c r="B36" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" ht="17" spans="2:2">
+      <c r="B38" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" ht="17" spans="2:2">
+      <c r="B40" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" ht="17" spans="2:2">
+      <c r="B42" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" ht="17" spans="2:2">
+      <c r="B44" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="@SpringBootApplication" tooltip="https://www.instagram.com/SpringBootApplication/"/>
+    <hyperlink ref="B4" r:id="rId2" display="@RestController" tooltip="https://www.instagram.com/RestController/"/>
+    <hyperlink ref="B6" r:id="rId3" display="@RequestMapping" tooltip="https://www.instagram.com/RequestMapping/"/>
+    <hyperlink ref="B10" r:id="rId4" display="@Autowired" tooltip="https://www.instagram.com/Autowired/"/>
+    <hyperlink ref="B14" r:id="rId5" display="@Configuration" tooltip="https://www.instagram.com/Configuration/"/>
+    <hyperlink ref="B16" r:id="rId6" display="@Bean" tooltip="https://www.instagram.com/Bean/"/>
+    <hyperlink ref="B18" r:id="rId7" display="@Entity" tooltip="https://www.instagram.com/Entity/"/>
+    <hyperlink ref="B20" r:id="rId8" display="@Table" tooltip="https://www.instagram.com/Table/"/>
+    <hyperlink ref="B22" r:id="rId9" display="@Id" tooltip="https://www.instagram.com/Id/"/>
+    <hyperlink ref="B24" r:id="rId10" display="@GeneratedValue" tooltip="https://www.instagram.com/GeneratedValue/"/>
+    <hyperlink ref="B26" r:id="rId11" display="@EnableAutoConfiguration" tooltip="https://www.instagram.com/EnableAutoConfiguration/"/>
+    <hyperlink ref="B28" r:id="rId12" display="@ComponentScan" tooltip="https://www.instagram.com/ComponentScan/"/>
+    <hyperlink ref="B30" r:id="rId13" display="@ConditionalOnProperty" tooltip="https://www.instagram.com/ConditionalOnProperty/"/>
+    <hyperlink ref="B32" r:id="rId14" display="@Value" tooltip="https://www.instagram.com/Value/"/>
+    <hyperlink ref="B34" r:id="rId15" display="@Profile" tooltip="https://www.instagram.com/Profile/"/>
+    <hyperlink ref="B36" r:id="rId16" display="@PathVariable" tooltip="https://www.instagram.com/PathVariable/"/>
+    <hyperlink ref="B38" r:id="rId17" display="@RequestParam" tooltip="https://www.instagram.com/RequestParam/"/>
+    <hyperlink ref="B40" r:id="rId18" display="@RequestBody" tooltip="https://www.instagram.com/RequestBody/"/>
+    <hyperlink ref="B42" r:id="rId19" display="@ResponseBody" tooltip="https://www.instagram.com/ResponseBody/"/>
+    <hyperlink ref="B44" r:id="rId20" display="@ExceptionHandler" tooltip="https://www.instagram.com/ExceptionHandler/"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>